--- a/weeklyReport/刘君昊/刘君昊周报.xlsx
+++ b/weeklyReport/刘君昊/刘君昊周报.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第5周工作周报" sheetId="9" r:id="rId1"/>
+    <sheet name="第6周工作周报" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第5周工作周报!$A$1:$O$35</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <r>
       <rPr>
@@ -163,6 +164,40 @@
       <t>：</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.4.22          </t>
+    </r>
+  </si>
+  <si>
+    <t>添加连接数据库功能</t>
+  </si>
+  <si>
+    <t>添加保存图片到数据库功能</t>
+  </si>
+  <si>
+    <t>创建数据库表</t>
+  </si>
+  <si>
+    <t>数据库连接和测试</t>
+  </si>
+  <si>
+    <t>mybatis测试</t>
+  </si>
+  <si>
+    <t>数据库存储功能</t>
+  </si>
+  <si>
+    <t>连接前端进行整合</t>
+  </si>
 </sst>
 </file>
 
@@ -174,19 +209,16 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="幼圆"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
       <name val="幼圆"/>
       <charset val="134"/>
     </font>
@@ -251,6 +283,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="幼圆"/>
       <charset val="134"/>
@@ -270,13 +318,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="幼圆"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -288,6 +329,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
@@ -295,19 +362,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -320,19 +375,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -343,19 +385,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="56"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -384,7 +420,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -395,15 +431,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -440,43 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +506,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,13 +578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,31 +596,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,21 +767,6 @@
       <top style="thin">
         <color indexed="13"/>
       </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -758,16 +785,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,17 +840,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
+      <left style="double">
+        <color indexed="63"/>
       </left>
-      <right style="thin">
-        <color indexed="23"/>
+      <right style="double">
+        <color indexed="63"/>
       </right>
-      <top style="thin">
-        <color indexed="23"/>
+      <top style="double">
+        <color indexed="63"/>
       </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,16 +882,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color indexed="63"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color indexed="63"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color indexed="63"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="63"/>
       </bottom>
       <diagonal/>
@@ -852,374 +905,366 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1613,856 +1658,856 @@
   <sheetPr/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A1:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.6" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.2" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.6" style="2" customWidth="1"/>
-    <col min="7" max="7" width="4.9" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.1" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.1" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.6" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.1" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.2" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.9" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.6" style="2" customWidth="1"/>
-    <col min="16" max="16" width="6.9" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2" customWidth="1"/>
-    <col min="18" max="18" width="26.7" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.2" style="68" customWidth="1"/>
+    <col min="2" max="2" width="3.6" style="68" customWidth="1"/>
+    <col min="3" max="3" width="8" style="68" customWidth="1"/>
+    <col min="4" max="4" width="36" style="68" customWidth="1"/>
+    <col min="5" max="5" width="4.2" style="68" customWidth="1"/>
+    <col min="6" max="6" width="5.6" style="68" customWidth="1"/>
+    <col min="7" max="7" width="4.9" style="68" customWidth="1"/>
+    <col min="8" max="8" width="6.1" style="68" customWidth="1"/>
+    <col min="9" max="9" width="7.1" style="68" customWidth="1"/>
+    <col min="10" max="10" width="6.6" style="68" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="68" customWidth="1"/>
+    <col min="12" max="12" width="9.1" style="68" customWidth="1"/>
+    <col min="13" max="13" width="7.2" style="68" customWidth="1"/>
+    <col min="14" max="14" width="12.9" style="68" customWidth="1"/>
+    <col min="15" max="15" width="8.6" style="68" customWidth="1"/>
+    <col min="16" max="16" width="6.9" style="68" customWidth="1"/>
+    <col min="17" max="17" width="9" style="68" customWidth="1"/>
+    <col min="18" max="18" width="26.7" style="68" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:18">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:18">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+    </row>
+    <row r="2" s="67" customFormat="1" ht="18" customHeight="1" spans="1:18">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
     </row>
     <row r="3" ht="23.25" customHeight="1" spans="1:18">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:16">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="47"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="69"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="47"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="69"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11">
         <v>2</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="47"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="69"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="47"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="69"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:16">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="47"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="69"/>
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:16">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="47"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="69"/>
     </row>
     <row r="10" ht="12.9" customHeight="1" spans="1:16">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22">
         <v>4.11</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>60</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27">
+      <c r="F10" s="25"/>
+      <c r="G10" s="26">
         <v>1</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="47"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="69"/>
     </row>
     <row r="11" ht="12.9" customHeight="1" spans="1:16">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="47"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="69"/>
     </row>
     <row r="12" ht="12.9" customHeight="1" spans="1:16">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22">
         <v>4.12</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>100</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="27">
+      <c r="F12" s="32"/>
+      <c r="G12" s="26">
         <v>2</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="47"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="69"/>
     </row>
     <row r="13" ht="12.9" customHeight="1" spans="1:16">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="47"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="69"/>
     </row>
     <row r="14" ht="12.9" customHeight="1" spans="1:16">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22">
         <v>4.13</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <v>100</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="27">
+      <c r="F14" s="32"/>
+      <c r="G14" s="26">
         <v>3</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="47"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="69"/>
     </row>
     <row r="15" ht="12.9" customHeight="1" spans="1:16">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="47"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="69"/>
     </row>
     <row r="16" ht="12.9" customHeight="1" spans="1:16">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22">
         <v>4.14</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <v>100</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="27">
+      <c r="F16" s="32"/>
+      <c r="G16" s="26">
         <v>4</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="47"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="69"/>
     </row>
     <row r="17" ht="12.9" customHeight="1" spans="1:16">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="47"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="69"/>
     </row>
     <row r="18" ht="12.9" customHeight="1" spans="1:16">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22">
         <v>4.15</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="31">
         <v>100</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="27">
+      <c r="F18" s="32"/>
+      <c r="G18" s="26">
         <v>5</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="47"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="69"/>
     </row>
     <row r="19" ht="12.9" customHeight="1" spans="1:16">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="47"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="69"/>
     </row>
     <row r="20" ht="12.9" customHeight="1" spans="1:16">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22">
         <v>4.16</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="27">
+      <c r="D20" s="23"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="26">
         <v>6</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="47"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="69"/>
     </row>
     <row r="21" ht="12.9" customHeight="1" spans="1:16">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="47"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="69"/>
     </row>
     <row r="22" ht="12.9" customHeight="1" spans="1:16">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22">
         <v>4.17</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="27">
+      <c r="D22" s="23"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="26">
         <v>7</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="47"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="69"/>
     </row>
     <row r="23" ht="12.9" customHeight="1" spans="1:16">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="47"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="69"/>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:16">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="47"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="69"/>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:16">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="O25" s="65"/>
-      <c r="P25" s="47"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="69"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38">
+      <c r="B26" s="36"/>
+      <c r="C26" s="37">
         <v>4.18</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="47"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="69"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41">
+      <c r="B27" s="39"/>
+      <c r="C27" s="40">
         <v>4.19</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="47"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="69"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="66">
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="61">
         <v>100</v>
       </c>
-      <c r="O28" s="64"/>
-      <c r="P28" s="47"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="69"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41">
+      <c r="B29" s="39"/>
+      <c r="C29" s="40">
         <v>4.21</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="47"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="69"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38">
+      <c r="B30" s="36"/>
+      <c r="C30" s="37">
         <v>4.22</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="47"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="69"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41">
+      <c r="B31" s="39"/>
+      <c r="C31" s="40">
         <v>4.23</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="47"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="69"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38">
+      <c r="B32" s="36"/>
+      <c r="C32" s="37">
         <v>4.24</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="47"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="69"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="47"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="69"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="47"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="69"/>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:16">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="47"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="69"/>
     </row>
     <row r="36" ht="13.5" customHeight="1" spans="1:15">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
     </row>
     <row r="38" spans="4:4">
-      <c r="D38" s="47"/>
+      <c r="D38" s="69"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="47"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="69"/>
     </row>
     <row r="40" spans="4:4">
-      <c r="D40" s="47"/>
+      <c r="D40" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -2565,4 +2610,858 @@
   <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" useFirstPageNumber="1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" ht="22.95" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="47"/>
+    </row>
+    <row r="3" ht="16.2" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="49"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="50"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11">
+        <v>2</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="51"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="8" ht="16.2" spans="1:15">
+      <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="52"/>
+    </row>
+    <row r="9" ht="24" spans="1:15">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="53"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22">
+        <v>4.18</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="24">
+        <v>80</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22">
+        <v>4.19</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="31">
+        <v>100</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="54"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="54"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22">
+        <v>4.2</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="31">
+        <v>100</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="26">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="54"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="54"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22">
+        <v>4.21</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="31">
+        <v>100</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="26">
+        <v>4</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="54"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="54"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22">
+        <v>4.22</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="31">
+        <v>100</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="26">
+        <v>5</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="56"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="58"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22">
+        <v>4.23</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="26">
+        <v>6</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="56"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="58"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22">
+        <v>4.24</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="26">
+        <v>7</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="56"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="58"/>
+    </row>
+    <row r="24" ht="16.2" spans="1:15">
+      <c r="A24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="59"/>
+    </row>
+    <row r="25" ht="24" spans="1:15">
+      <c r="A25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="60"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37">
+        <v>4.25</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="59"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40">
+        <v>4.26</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37">
+        <v>4.27</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="61">
+        <v>100</v>
+      </c>
+      <c r="O28" s="59"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="63"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="59"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="63"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="59"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="64"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="65"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A34:O35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/weeklyReport/刘君昊/刘君昊周报.xlsx
+++ b/weeklyReport/刘君昊/刘君昊周报.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第5周工作周报" sheetId="9" r:id="rId1"/>
     <sheet name="第6周工作周报" sheetId="10" r:id="rId2"/>
+    <sheet name="第7周工作周报" sheetId="11" r:id="rId3"/>
+    <sheet name="第8周工作周报" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第5周工作周报!$A$1:$O$35</definedName>
@@ -18,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="52">
   <si>
     <r>
       <rPr>
@@ -40,7 +42,7 @@
     </r>
   </si>
   <si>
-    <t>姓名：                                     秦旭坤                                                  组长：张鸿斌</t>
+    <t>姓名：                                     刘君昊                                                  组长：张鸿斌</t>
   </si>
   <si>
     <t>本周工作总结</t>
@@ -166,6 +168,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">工作周报    </t>
     </r>
     <r>
@@ -176,6 +185,9 @@
       </rPr>
       <t xml:space="preserve">日期：2022.4.22          </t>
     </r>
+  </si>
+  <si>
+    <t>姓名：                                     刘君昊                                                 组长：张鸿斌</t>
   </si>
   <si>
     <t>添加连接数据库功能</t>
@@ -198,15 +210,53 @@
   <si>
     <t>连接前端进行整合</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.4.29          </t>
+    </r>
+  </si>
+  <si>
+    <t>和前端进行联合测试</t>
+  </si>
+  <si>
+    <t>数据库接口连接测试</t>
+  </si>
+  <si>
+    <t>和前端进行联合测试并进行调整</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.5.5          </t>
+    </r>
+  </si>
+  <si>
+    <t>接口优化和拆分模块</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -317,6 +367,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -330,27 +399,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -362,7 +412,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -385,21 +448,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -420,12 +476,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -433,7 +483,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -445,7 +495,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -482,7 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,13 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,19 +568,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,37 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,13 +610,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +646,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,6 +849,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -826,30 +891,15 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
         <color indexed="63"/>
       </bottom>
       <diagonal/>
@@ -882,16 +932,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color indexed="63"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color indexed="63"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color indexed="63"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="63"/>
       </bottom>
       <diagonal/>
@@ -908,148 +958,148 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
@@ -1659,7 +1709,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A1:O35"/>
+      <selection activeCell="A2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2617,8 +2667,8 @@
   <sheetPr/>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
@@ -2644,7 +2694,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2712,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2737,7 +2787,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -2877,7 +2927,7 @@
         <v>4.19</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="31">
         <v>100</v>
@@ -2921,7 +2971,7 @@
         <v>4.2</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" s="31">
         <v>100</v>
@@ -2965,7 +3015,7 @@
         <v>4.21</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="31">
         <v>100</v>
@@ -3009,7 +3059,7 @@
         <v>4.22</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="31">
         <v>100</v>
@@ -3217,7 +3267,7 @@
         <v>4.27</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
@@ -3250,6 +3300,1668 @@
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
       <c r="N29" s="62"/>
+      <c r="O29" s="63"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="59"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="63"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="59"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="64"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="65"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A34:O35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" ht="22.95" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="47"/>
+    </row>
+    <row r="3" ht="16.2" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="49"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="50"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="51"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="8" ht="16.2" spans="1:15">
+      <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="52"/>
+    </row>
+    <row r="9" ht="24" spans="1:15">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="53"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22">
+        <v>4.25</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="24">
+        <v>85</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22">
+        <v>4.26</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="54"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="54"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22">
+        <v>4.27</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="31">
+        <v>100</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="26">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="54"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="54"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="31">
+        <v>100</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="26">
+        <v>4</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="54"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="54"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="31">
+        <v>100</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="26">
+        <v>5</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="56"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="58"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="26">
+        <v>6</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="56"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="58"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="26">
+        <v>7</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="56"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="58"/>
+    </row>
+    <row r="24" ht="16.2" spans="1:15">
+      <c r="A24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="59"/>
+    </row>
+    <row r="25" ht="24" spans="1:15">
+      <c r="A25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="60"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="59"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="61">
+        <v>100</v>
+      </c>
+      <c r="O28" s="59"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40">
+        <v>5.5</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="63"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="59"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="63"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="59"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="64"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="65"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A34:O35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" ht="22.95" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="47"/>
+    </row>
+    <row r="3" ht="16.2" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="49"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="50"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="51"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="8" ht="16.2" spans="1:15">
+      <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="52"/>
+    </row>
+    <row r="9" ht="24" spans="1:15">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="53"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22">
+        <v>5.2</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="24">
+        <v>90</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="54"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="54"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22">
+        <v>5.4</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="31">
+        <v>50</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="26">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="54"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="54"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22">
+        <v>5.5</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="31">
+        <v>100</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="26">
+        <v>4</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="54"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="54"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="26">
+        <v>5</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="56"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="58"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="26">
+        <v>6</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="56"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="58"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="26">
+        <v>7</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="56"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="58"/>
+    </row>
+    <row r="24" ht="16.2" spans="1:15">
+      <c r="A24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="59"/>
+    </row>
+    <row r="25" ht="24" spans="1:15">
+      <c r="A25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="60"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="59"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37">
+        <v>5.11</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="61">
+        <v>50</v>
+      </c>
+      <c r="O28" s="59"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40">
+        <v>5.12</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="62">
+        <v>100</v>
+      </c>
       <c r="O29" s="63"/>
     </row>
     <row r="30" spans="1:15">

--- a/weeklyReport/刘君昊/刘君昊周报.xlsx
+++ b/weeklyReport/刘君昊/刘君昊周报.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="第5周工作周报" sheetId="9" r:id="rId1"/>
     <sheet name="第6周工作周报" sheetId="10" r:id="rId2"/>
     <sheet name="第7周工作周报" sheetId="11" r:id="rId3"/>
     <sheet name="第8周工作周报" sheetId="12" r:id="rId4"/>
+    <sheet name="第9周工作周报" sheetId="13" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第5周工作周报!$A$1:$O$35</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="54">
   <si>
     <r>
       <rPr>
@@ -212,6 +213,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">工作周报    </t>
     </r>
     <r>
@@ -234,6 +242,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">工作周报    </t>
     </r>
     <r>
@@ -248,16 +263,22 @@
   <si>
     <t>接口优化和拆分模块</t>
   </si>
+  <si>
+    <t>完成照片美颜接口</t>
+  </si>
+  <si>
+    <t>和前端完成调试美颜接口</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -367,22 +388,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -392,27 +401,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -424,8 +413,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -447,13 +442,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
@@ -461,14 +449,34 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -496,6 +504,19 @@
     <font>
       <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -532,25 +553,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,25 +589,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,31 +619,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +655,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,13 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,6 +871,30 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="22"/>
       </left>
       <right style="thin">
@@ -860,32 +905,6 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,15 +929,6 @@
       <top/>
       <bottom style="thick">
         <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,151 +965,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
@@ -4349,8 +4370,8 @@
   <sheetPr/>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:O35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A1:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
@@ -4946,6 +4967,844 @@
       <c r="B29" s="39"/>
       <c r="C29" s="40">
         <v>5.12</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="62">
+        <v>100</v>
+      </c>
+      <c r="O29" s="63"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="59"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="63"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="59"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="64"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="65"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A34:O35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" ht="22.95" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="47"/>
+    </row>
+    <row r="3" ht="16.2" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="49"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="50"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="51"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="8" ht="16.2" spans="1:15">
+      <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="52"/>
+    </row>
+    <row r="9" ht="24" spans="1:15">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="53"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22">
+        <v>5.9</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="24">
+        <v>95</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="54"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="54"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22">
+        <v>5.11</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="31">
+        <v>50</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="26">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="54"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="54"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22">
+        <v>5.12</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="31">
+        <v>100</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="26">
+        <v>4</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="54"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="54"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="26">
+        <v>5</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="56"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="58"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="26">
+        <v>6</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="56"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="58"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="26">
+        <v>7</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="56"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="58"/>
+    </row>
+    <row r="24" ht="16.2" spans="1:15">
+      <c r="A24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="59"/>
+    </row>
+    <row r="25" ht="24" spans="1:15">
+      <c r="A25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="60"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="59"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37">
+        <v>5.18</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="61">
+        <v>50</v>
+      </c>
+      <c r="O28" s="59"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40">
+        <v>5.19</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>45</v>

--- a/weeklyReport/刘君昊/刘君昊周报.xlsx
+++ b/weeklyReport/刘君昊/刘君昊周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="第5周工作周报" sheetId="9" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="第7周工作周报" sheetId="11" r:id="rId3"/>
     <sheet name="第8周工作周报" sheetId="12" r:id="rId4"/>
     <sheet name="第9周工作周报" sheetId="13" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第5周工作周报!$A$1:$O$35</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="58">
   <si>
     <r>
       <rPr>
@@ -264,10 +265,42 @@
     <t>接口优化和拆分模块</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.5.9          </t>
+    </r>
+  </si>
+  <si>
     <t>完成照片美颜接口</t>
   </si>
   <si>
     <t>和前端完成调试美颜接口</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.5.16          </t>
+    </r>
+  </si>
+  <si>
+    <t>整体调试和展示</t>
+  </si>
+  <si>
+    <t>DEBUG数据库存储</t>
   </si>
 </sst>
 </file>
@@ -387,11 +420,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -401,7 +434,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -412,15 +460,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -441,20 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
@@ -462,8 +495,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
+      <sz val="18"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -483,8 +516,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <sz val="13"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -497,7 +530,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -516,7 +549,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -553,7 +586,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,31 +634,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,31 +664,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,49 +700,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,11 +918,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,17 +948,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,7 +961,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="62"/>
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,148 +1012,148 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
@@ -5204,15 +5237,15 @@
   <sheetPr/>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:M28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" ht="22.95" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5299,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -5324,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -5500,7 +5533,7 @@
         <v>5.11</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" s="31">
         <v>50</v>
@@ -5544,7 +5577,7 @@
         <v>5.12</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16" s="31">
         <v>100</v>
@@ -5821,6 +5854,850 @@
       <c r="N29" s="62">
         <v>100</v>
       </c>
+      <c r="O29" s="63"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="59"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="63"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="59"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="64"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="65"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A34:O35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" ht="22.95" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="47"/>
+    </row>
+    <row r="3" ht="16.2" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="49"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="50"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="51"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="8" ht="16.2" spans="1:15">
+      <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="52"/>
+    </row>
+    <row r="9" ht="24" spans="1:15">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="53"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22">
+        <v>5.16</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="24">
+        <v>100</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22">
+        <v>5.17</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="31">
+        <v>50</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="54"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="54"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22">
+        <v>5.18</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="31">
+        <v>100</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="26">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="54"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="54"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22">
+        <v>5.19</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="31">
+        <v>100</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="26">
+        <v>4</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="54"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="54"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="26">
+        <v>5</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="56"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="58"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="26">
+        <v>6</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="56"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="58"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="26">
+        <v>7</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="56"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="58"/>
+    </row>
+    <row r="24" ht="16.2" spans="1:15">
+      <c r="A24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="59"/>
+    </row>
+    <row r="25" ht="24" spans="1:15">
+      <c r="A25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="60"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="59"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40">
+        <v>5.23</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="62">
+        <v>50</v>
+      </c>
+      <c r="O27" s="63"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37">
+        <v>5.24</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="61">
+        <v>100</v>
+      </c>
+      <c r="O28" s="59"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="62"/>
       <c r="O29" s="63"/>
     </row>
     <row r="30" spans="1:15">

--- a/weeklyReport/刘君昊/刘君昊周报.xlsx
+++ b/weeklyReport/刘君昊/刘君昊周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="18468" windowHeight="9420" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="第5周工作周报" sheetId="9" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="第7周工作周报" sheetId="11" r:id="rId3"/>
     <sheet name="第8周工作周报" sheetId="12" r:id="rId4"/>
     <sheet name="第9周工作周报" sheetId="13" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId6"/>
+    <sheet name="第10周工作周报" sheetId="14" r:id="rId6"/>
+    <sheet name="第11周工作周报" sheetId="15" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第5周工作周报!$A$1:$O$35</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="66">
   <si>
     <r>
       <rPr>
@@ -266,6 +267,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">工作周报    </t>
     </r>
     <r>
@@ -285,6 +293,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">工作周报    </t>
     </r>
     <r>
@@ -302,16 +317,50 @@
   <si>
     <t>DEBUG数据库存储</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.5.23          </t>
+    </r>
+  </si>
+  <si>
+    <t>整体调试和展示准备</t>
+  </si>
+  <si>
+    <t>文档编写</t>
+  </si>
+  <si>
+    <t>其他辅助功能新增</t>
+  </si>
+  <si>
+    <t>整体测试并调试</t>
+  </si>
+  <si>
+    <t>新增各种功能</t>
+  </si>
+  <si>
+    <t>新增各种功能测试</t>
+  </si>
+  <si>
+    <t>文档制作</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -420,15 +469,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -440,9 +488,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -455,19 +502,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -480,6 +542,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -488,15 +563,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -508,35 +577,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -549,7 +591,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -586,7 +635,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,13 +683,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,19 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,25 +743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,49 +761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,6 +952,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -933,6 +991,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -944,33 +1011,6 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,6 +1032,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color indexed="52"/>
@@ -1001,11 +1052,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,145 +1064,145 @@
     <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
@@ -6075,8 +6124,8 @@
   <sheetPr/>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
@@ -6666,6 +6715,856 @@
       </c>
       <c r="D28" s="38" t="s">
         <v>56</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="61">
+        <v>100</v>
+      </c>
+      <c r="O28" s="59"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="63"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="59"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="63"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="59"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="64"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="65"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A34:O35"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData>
+    <row r="1" ht="22.95" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="47"/>
+    </row>
+    <row r="3" ht="16.2" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="49"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="50"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="51"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="8" ht="16.2" spans="1:15">
+      <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="52"/>
+    </row>
+    <row r="9" ht="24" spans="1:15">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="53"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22">
+        <v>5.23</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="24">
+        <v>50</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26">
+        <v>1</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="54"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="54"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22">
+        <v>5.24</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="31">
+        <v>100</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="54"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="54"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22">
+        <v>5.25</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="31">
+        <v>100</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="26">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="54"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="54"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22">
+        <v>5.26</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="31">
+        <v>50</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="26">
+        <v>4</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="54"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="54"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22">
+        <v>5.27</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="31">
+        <v>100</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="26">
+        <v>5</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="56"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="58"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="26">
+        <v>6</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="56"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="58"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="26">
+        <v>7</v>
+      </c>
+      <c r="H22" s="27"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="56"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="58"/>
+    </row>
+    <row r="24" ht="16.2" spans="1:15">
+      <c r="A24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="59"/>
+    </row>
+    <row r="25" ht="24" spans="1:15">
+      <c r="A25" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="60"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="59"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40">
+        <v>5.31</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="62">
+        <v>50</v>
+      </c>
+      <c r="O27" s="63"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37">
+        <v>6.1</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>65</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
